--- a/data/trans_dic/P1408-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P1408-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.02444933062361935</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.05426333387805913</v>
+        <v>0.05426333387805914</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.06563002358716293</v>
@@ -697,7 +697,7 @@
         <v>0.03347076987239355</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06795288376285473</v>
+        <v>0.06795288376285472</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07227505616740643</v>
+        <v>0.0735644688425988</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03866878734844473</v>
+        <v>0.03879405380229573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03300856711479692</v>
+        <v>0.03073324678994851</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06842099884183418</v>
+        <v>0.06914042510021133</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03589092809646242</v>
+        <v>0.03622521208345454</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01630929650144042</v>
+        <v>0.01660351422400295</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01453567835047264</v>
+        <v>0.01521749004237166</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0433666964776081</v>
+        <v>0.04436012038689235</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05671160901051031</v>
+        <v>0.05581697569076475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02845393399185179</v>
+        <v>0.02831378003969667</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02530418905935851</v>
+        <v>0.02557029405304813</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05744378157460873</v>
+        <v>0.05773622880544133</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1088825628639388</v>
+        <v>0.1072645622437443</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.06684514641238565</v>
+        <v>0.06640753037129048</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06332958169141772</v>
+        <v>0.06291964515006067</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1110239065857212</v>
+        <v>0.1121589396147389</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.058396737082632</v>
+        <v>0.05939567964668249</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0317065587618748</v>
+        <v>0.03165130175653653</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03630146837885637</v>
+        <v>0.03601978777628879</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06664375846679725</v>
+        <v>0.06787825757624776</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07658080557060176</v>
+        <v>0.07737360039490891</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04279628868367113</v>
+        <v>0.0436546451603226</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04291398647419576</v>
+        <v>0.04312918290876921</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07950803951898067</v>
+        <v>0.08042989394569687</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.01377275576308616</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.01473410951337217</v>
+        <v>0.01473410951337218</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0154880246744393</v>
@@ -833,7 +833,7 @@
         <v>0.01125278495664099</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01742265162522304</v>
+        <v>0.01742265162522305</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01479375414951161</v>
+        <v>0.01485083722504144</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007010582349616862</v>
+        <v>0.007079397358381804</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008843751068852547</v>
+        <v>0.009403847454586275</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01072662904722409</v>
+        <v>0.01030451594039088</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0100797760494012</v>
+        <v>0.01017030910275965</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.002929828057898065</v>
+        <v>0.002907541800986691</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005029341684285511</v>
+        <v>0.005077577669130292</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01479924475516584</v>
+        <v>0.01492133300747389</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01416428245247339</v>
+        <v>0.01397392092565789</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.006296323244271608</v>
+        <v>0.006057301546433235</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008120267743426043</v>
+        <v>0.00827570149836465</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01405252180761257</v>
+        <v>0.01385119429367827</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02941480318983772</v>
+        <v>0.02912058961750976</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0192683542683625</v>
+        <v>0.01948984753485524</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01927625080642397</v>
+        <v>0.01961146123365433</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02058240318684008</v>
+        <v>0.02011348302494429</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02267632970706967</v>
+        <v>0.0236709271443252</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01104845111860255</v>
+        <v>0.01105548734483028</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01388215604502211</v>
+        <v>0.01356784921298631</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02756461599272</v>
+        <v>0.0275517317528765</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02358376154144217</v>
+        <v>0.0235585008176887</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01325156978307476</v>
+        <v>0.01333215479878925</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01486497973691255</v>
+        <v>0.01514510464555985</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02217082614379561</v>
+        <v>0.02194083107764247</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.006693903022873743</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.009432339549391485</v>
+        <v>0.009432339549391483</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.01163617124330208</v>
@@ -969,7 +969,7 @@
         <v>0.00610367850989676</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.009923746585214841</v>
+        <v>0.009923746585214843</v>
       </c>
     </row>
     <row r="11">
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005175456608664281</v>
+        <v>0.005912237325526172</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.001644614380566335</v>
+        <v>0.001647338928866911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.004751405461246848</v>
+        <v>0.004582953955811404</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004153068270022508</v>
+        <v>0.003892136047083581</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.001785042721394112</v>
+        <v>0.001783047240723702</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.005509089219576631</v>
+        <v>0.005776606197366212</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.00667684134835302</v>
+        <v>0.007056762305383961</v>
       </c>
       <c r="L11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00251324213949019</v>
+        <v>0.002525975933741584</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.006345988950382771</v>
+        <v>0.006313578160241163</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02690350560147161</v>
+        <v>0.0279416684250944</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.02093122747060045</v>
+        <v>0.01936354915561118</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01684117920065199</v>
+        <v>0.01665405519035407</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02554378476565729</v>
+        <v>0.02462999664726625</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01054747092040076</v>
+        <v>0.01189909753276087</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01438158861198072</v>
+        <v>0.01472152654744362</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01828310957286823</v>
+        <v>0.01868623849679543</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02265806885085885</v>
+        <v>0.02127110204717463</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.005202365194212916</v>
+        <v>0.00508223863647703</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01322671392588163</v>
+        <v>0.01313282128603016</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01565309975782317</v>
+        <v>0.01505993126281863</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.019682563637521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02558322092658785</v>
+        <v>0.02558322092658786</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02708762067688475</v>
@@ -1101,7 +1101,7 @@
         <v>0.01605990596029637</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02566829967164443</v>
+        <v>0.02566829967164442</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03529017512606692</v>
+        <v>0.03543655544429158</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01649806814257892</v>
+        <v>0.01680525622304477</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01527278165410828</v>
+        <v>0.01483356617579561</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02071939331513125</v>
+        <v>0.02080779621003939</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0220932539261662</v>
+        <v>0.02187867131907256</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.008482122607038912</v>
+        <v>0.008728114290792876</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.009006082486684847</v>
+        <v>0.009003795468903255</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02166329248393082</v>
+        <v>0.02171237441735938</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02999706534123199</v>
+        <v>0.03018530992542486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01385081176887605</v>
+        <v>0.01367050038874225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01309120040912252</v>
+        <v>0.01359043708889157</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02262446368987679</v>
+        <v>0.02241841783240628</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04811509746835873</v>
+        <v>0.04873670325254809</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02743765615681107</v>
+        <v>0.02698054862493425</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02438458181358823</v>
+        <v>0.0249257747237109</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03094878470135728</v>
+        <v>0.0313460581553912</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03340211741436706</v>
+        <v>0.03325608979554518</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01583907912911714</v>
+        <v>0.01654095518876814</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01673491811931649</v>
+        <v>0.01715057973087619</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03086205553313991</v>
+        <v>0.03115865811314999</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03880220591986967</v>
+        <v>0.03867985863282864</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02029787754456867</v>
+        <v>0.02012968204389425</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01915718505969004</v>
+        <v>0.01942596899774203</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02932360252373176</v>
+        <v>0.02915593955201985</v>
       </c>
     </row>
     <row r="16">
@@ -1459,40 +1459,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>74568</v>
+        <v>75898</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>37688</v>
+        <v>37810</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24900</v>
+        <v>23184</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>39516</v>
+        <v>39931</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>47201</v>
+        <v>47640</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>21799</v>
+        <v>22192</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>14458</v>
+        <v>15136</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>35483</v>
+        <v>36296</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>133093</v>
+        <v>130993</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>65764</v>
+        <v>65440</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>44257</v>
+        <v>44723</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>80177</v>
+        <v>80585</v>
       </c>
     </row>
     <row r="7">
@@ -1503,40 +1503,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>112337</v>
+        <v>110667</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>65150</v>
+        <v>64724</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>47772</v>
+        <v>47463</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>64121</v>
+        <v>64776</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>76798</v>
+        <v>78112</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>42379</v>
+        <v>42306</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>36108</v>
+        <v>35827</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>54528</v>
+        <v>55538</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>179723</v>
+        <v>181583</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>98913</v>
+        <v>100897</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>75057</v>
+        <v>75433</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>110973</v>
+        <v>112260</v>
       </c>
     </row>
     <row r="8">
@@ -1639,40 +1639,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>25052</v>
+        <v>25149</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13768</v>
+        <v>13904</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>18363</v>
+        <v>19526</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>23905</v>
+        <v>22965</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>16003</v>
+        <v>16147</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5141</v>
+        <v>5102</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10000</v>
+        <v>10096</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>32109</v>
+        <v>32374</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>46474</v>
+        <v>45850</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>23413</v>
+        <v>22524</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>33006</v>
+        <v>33638</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>61807</v>
+        <v>60921</v>
       </c>
     </row>
     <row r="11">
@@ -1683,40 +1683,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49811</v>
+        <v>49313</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37842</v>
+        <v>38277</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40025</v>
+        <v>40721</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45870</v>
+        <v>44825</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>36003</v>
+        <v>37582</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>19386</v>
+        <v>19398</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27602</v>
+        <v>26977</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>59806</v>
+        <v>59778</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>77380</v>
+        <v>77297</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>49277</v>
+        <v>49576</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>60421</v>
+        <v>61560</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>97513</v>
+        <v>96501</v>
       </c>
     </row>
     <row r="12">
@@ -1819,38 +1819,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2854</v>
+        <v>3260</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>3381</v>
+        <v>3261</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1979</v>
+        <v>1854</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4041</v>
+        <v>4237</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6863</v>
+        <v>7253</v>
       </c>
       <c r="L14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2755</v>
+        <v>2769</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9170</v>
+        <v>9124</v>
       </c>
     </row>
     <row r="15">
@@ -1861,38 +1861,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14835</v>
+        <v>15407</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>11447</v>
+        <v>10590</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11984</v>
+        <v>11851</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12169</v>
+        <v>11734</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4837</v>
+        <v>5457</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7898</v>
+        <v>8084</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13410</v>
+        <v>13706</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23288</v>
+        <v>21863</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>4889</v>
+        <v>4776</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>14497</v>
+        <v>14394</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>22620</v>
+        <v>21763</v>
       </c>
     </row>
     <row r="16">
@@ -1995,40 +1995,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>115630</v>
+        <v>116109</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>56420</v>
+        <v>57470</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>51586</v>
+        <v>50102</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>72885</v>
+        <v>73196</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>74657</v>
+        <v>73932</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30110</v>
+        <v>30983</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>31810</v>
+        <v>31802</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>80617</v>
+        <v>80799</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>199653</v>
+        <v>200906</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>96535</v>
+        <v>95278</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>90457</v>
+        <v>93906</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>163780</v>
+        <v>162289</v>
       </c>
     </row>
     <row r="19">
@@ -2039,40 +2039,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>157651</v>
+        <v>159688</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>93831</v>
+        <v>92268</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>82362</v>
+        <v>84190</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>108869</v>
+        <v>110267</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>112872</v>
+        <v>112379</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>56226</v>
+        <v>58718</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>59109</v>
+        <v>60578</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>114848</v>
+        <v>115952</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>258257</v>
+        <v>257443</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>141468</v>
+        <v>140296</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>132371</v>
+        <v>134228</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>212276</v>
+        <v>211062</v>
       </c>
     </row>
     <row r="20">
